--- a/Result/check3/2025-03-13.xlsx
+++ b/Result/check3/2025-03-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU37"/>
+  <dimension ref="A1:AU39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>8155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-2.09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1034.0</t>
+          <t>2617.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -698,27 +698,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>-1.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>21.22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>41.1</t>
+          <t>140.5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -728,32 +728,32 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-7.31</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.83</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -763,37 +763,37 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>285.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>71.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,32 +808,32 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>50244.0</t>
+          <t>244000.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>青鋼</t>
+          <t>博智</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -843,57 +843,57 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>19.19</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>12.72</t>
+          <t>31.24</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>25.99%</t>
+          <t>15.82%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>16.43%</t>
+          <t>7.06%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>17.06</t>
+          <t>65.32</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>8201</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>隔間板輕鋼架48.50%、天花板輕鋼架系列17.99%、金屬天花板16.71%、鋼捲16.20%、其他0.60% (2023年)</t>
+          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>青鋼-鋼鐵工業-上櫃</t>
+          <t>博智-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>43.21</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8155</t>
+          <t>8088</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2617.0</t>
+          <t>18135.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -935,27 +935,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>35.64</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>140.5</t>
+          <t>27.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -965,72 +965,72 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>12.7</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>938</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-6.37</t>
+          <t>-1.43</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1055,22 +1055,22 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>64</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>244000.0</t>
+          <t>545128.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>博智</t>
+          <t>品安</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1080,57 +1080,57 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>19.19</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>31.77</t>
+          <t>196.88</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>15.82%</t>
+          <t>13.29%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>11.78%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>71.59</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>8341</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)97.26%、樣品及其他2.74% (2024年)</t>
+          <t>記憶體模組產品98.77%、快閃記憶體相關產品1.23% (2023年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>博智-電子零組件業-上櫃</t>
+          <t>品安-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>43.21</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1152,17 +1152,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8088</t>
+          <t>6658</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18135.0</t>
+          <t>11436.059</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1172,114 +1172,114 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>-6.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>35.64</t>
+          <t>37.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>81.8</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-6.65</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>27.5</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>12.28</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>889</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>-3.35</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>64.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>2025-03-12</t>
@@ -1292,82 +1292,82 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>545128.0</t>
+          <t>18255597.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>品安</t>
+          <t>聯策</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>195.94</t>
+          <t>70.37</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>13.29%</t>
+          <t>23.51%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>72.55</t>
+          <t>44.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>記憶體模組產品98.77%、快閃記憶體相關產品1.23% (2023年)</t>
+          <t>商品銷售79.43%、印刷電路板表面處理18.30%、其他勞務2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>品安-半導體業-上櫃</t>
+          <t>聯策-其他電子業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>16.79</t>
+          <t>36.02</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1389,17 +1389,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6658</t>
+          <t>6517</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11436.059</t>
+          <t>1607.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1409,27 +1409,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-6.35</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>37.86</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>81.8</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1439,32 +1439,32 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>31.12</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>144</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>20902</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1474,42 +1474,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>236.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1519,92 +1519,92 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>18255597.0</t>
+          <t>157353.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>聯策</t>
+          <t>保勝光學</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>72.66</t>
+          <t>27.93</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>23.51%</t>
+          <t>36.23%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3.83%</t>
+          <t>17.18%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>45.09</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>商品銷售79.43%、印刷電路板表面處理18.30%、其他勞務2.27% (2024年)</t>
+          <t>光學鏡頭60.10%、光學鏡片35.37%、其他4.53% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>聯策-其他電子業-上市</t>
+          <t>保勝光學-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>36.02</t>
+          <t>21.79</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1626,17 +1626,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6517</t>
+          <t>6227</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>-1.4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1607.0</t>
+          <t>24090.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1646,27 +1646,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>-5.60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>85.76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1676,32 +1676,32 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>26.99</t>
+          <t>15.79</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>33440</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-15.61</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1711,77 +1711,77 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>236.0</t>
+          <t>68.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>157353.0</t>
+          <t>-1048417.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>保勝光學</t>
+          <t>茂綸</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1791,57 +1791,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>26.35</t>
+          <t>17.4</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>36.23%</t>
+          <t>12.53%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>17.18%</t>
+          <t>5.71%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>8677</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>光學鏡頭60.10%、光學鏡片35.37%、其他4.53% (2024年)</t>
+          <t>半導體電子零組件98.37%、其他營業收入1.63% (2023年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>保勝光學-光電業-上櫃</t>
+          <t>茂綸-電子通路業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>21.79</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1863,17 +1863,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6227</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24090.0</t>
+          <t>457.785</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1883,27 +1883,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-5.60</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>85.76</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>96.0</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1913,37 +1913,37 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>22.89</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>734</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-2.80</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1953,132 +1953,132 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>-12.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-1048417.0</t>
+          <t>-21369597.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>茂綸</t>
+          <t>建國</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>12.53%</t>
+          <t>14.36%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>5.71%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>39.11</t>
+          <t>50.04</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>9476</t>
+          <t>6401</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>半導體電子零組件98.37%、其他營業收入1.63% (2023年)</t>
+          <t>工程服務(含機電)99.99%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>茂綸-電子通路業-上櫃</t>
+          <t>建國-建材營造-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>24.48</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2100,17 +2100,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>5439</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>457.785</t>
+          <t>19208.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2120,27 +2120,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>38.61</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>166.5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2150,72 +2150,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>14.83</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>18018</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-12.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2230,92 +2230,92 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>-21369597.0</t>
+          <t>10809628.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>建國</t>
+          <t>高技</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>60.53</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>14.36%</t>
+          <t>15.58%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>8.93%</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>49.91</t>
+          <t>66.3</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>6320</t>
+          <t>18177</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>工程服務(含機電)99.99%、其他0.01% (2023年)</t>
+          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>建國-建材營造-上市</t>
+          <t>高技-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5439</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>-4.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19208.0</t>
+          <t>422.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2357,202 +2357,202 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>-5.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>38.61</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>23.7</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>16.4</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>166.5</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>736.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>天鉞電</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>14.83</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>18018</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>11.25</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>10809628.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>高技</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>60.53</t>
+          <t>472.5</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>15.58%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>18177</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>多層印刷電路板(PCB)93.39%、其他3.47%、單, 雙層印刷電路板3.14% (2023年)</t>
+          <t>安全監視產品57.87%、其他27.52%、智能電子門鎖14.61% (2023年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>高技-電子零組件業-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2624,17 +2624,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>1196</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2644,12 +2644,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>27.69</t>
+          <t>26.55</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>184.39</t>
+          <t>181.53</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>10988</t>
+          <t>10537</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>94</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>28564</t>
+          <t>33430</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>36.24</t>
+          <t>36.28</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>5948</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3098,17 +3098,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>-5.92</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>-5.25</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>31.62</t>
+          <t>36.38</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3238,12 +3238,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>54.41</t>
+          <t>54.12</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2751</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3335,17 +3335,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>798</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3355,12 +3355,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>19.84</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3475,12 +3475,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>89.49</t>
+          <t>89.2</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3522,17 +3522,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2098.0</t>
+          <t>3424.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3542,27 +3542,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-6.03</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21.57</t>
+          <t>34.54</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>33.5</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3582,62 +3582,62 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>556</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-4.74</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>149.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3652,32 +3652,32 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>81622.0</t>
+          <t>130315.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>健喬</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3687,57 +3687,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>20.92</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>43.05%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>13.27%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>89.2</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>15834</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>C電子產品99.05%、其他商品及勞務0.68%、室內兒童樂園0.28% (2023年)</t>
+          <t>自製產品72.13%、外購25.75%、其他2.12% (2023年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>健喬-生技醫療業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.08</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>742.965</t>
+          <t>2098.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3779,27 +3779,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-6.03</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>21.57</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3809,77 +3809,77 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>-4.66</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -3889,92 +3889,92 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>10131860.0</t>
+          <t>81622.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>13.25</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>43.91%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>16.27%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>44.14</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、面膜0.01%、食品-其他0.01% (2023年)</t>
+          <t>C電子產品99.05%、其他商品及勞務0.68%、室內兒童樂園0.28% (2023年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>28.78</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -3996,17 +3996,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1233.707</t>
+          <t>742.965</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4016,27 +4016,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>210.0</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4046,32 +4046,32 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>707</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-3.10</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4081,37 +4081,37 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4126,32 +4126,32 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>1150384635.0</t>
+          <t>10131860.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -4161,57 +4161,57 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>14.69</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>43.91%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>16.27%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>128.54</t>
+          <t>43.83</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>49580</t>
+          <t>15106</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
+          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、食品-其他0.01%、面膜0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>28.78</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4233,17 +4233,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>699.97</t>
+          <t>1233.707</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4253,27 +4253,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>210.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4283,72 +4283,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>55</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>9255</t>
+          <t>5208</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-2.09</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4358,37 +4358,37 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>-18064780.0</t>
+          <t>1150384635.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>艾笛森</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
@@ -4398,57 +4398,57 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>26.05</t>
+          <t>20.7</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>24.20%</t>
+          <t>15.36%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>5.39%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>83.07</t>
+          <t>126.52</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>3741</t>
+          <t>51453</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
+          <t>智慧家庭類產品34.36%、行動通訊產品33.15%、寬頻固網29.63%、其他2.86% (2023年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>艾笛森-光電業-上市</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -4470,17 +4470,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-5.76</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1705.0</t>
+          <t>699.97</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4490,27 +4490,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-7.31</t>
+          <t>-2.67</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>35.31</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4520,72 +4520,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>99</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>12765</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>9.62</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4595,32 +4595,32 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>-5033.0</t>
+          <t>-18064780.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>艾笛森</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -4630,52 +4630,52 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21.83</t>
+          <t>26.35</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>24.20%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>5.39%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>安全監視產品81.64%、工業應用產品10.77%、其他5.88%、健康醫療產品1.24%、健康及保健產品0.48% (2023年)</t>
+          <t>LED照明59.76%、LED車用照明模組31.21%、傳感器元件6.92%、其他2.11% (2023年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>艾笛森-光電業-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>21.25</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -4707,17 +4707,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3528</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-3.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30391.0</t>
+          <t>6134.3</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4727,27 +4727,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-8.37</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>40.54</t>
+          <t>29.73</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>197.0</t>
+          <t>75.9</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4757,72 +4757,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>6728</t>
+          <t>673</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>541.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4847,82 +4847,82 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>3339422.0</t>
+          <t>2024269057.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>順達</t>
+          <t>安馳</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>20.19</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>18.49</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>8.75%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>1.51%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>29673</t>
+          <t>5123</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
+          <t>混合信號積體電路(IC)31.31%、其他24.44%、類比IC22.90%、邏輯IC21.35% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>順達-電腦及週邊設備業-上櫃</t>
+          <t>安馳-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -4944,17 +4944,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-5.76</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1177.756</t>
+          <t>1705.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4964,27 +4964,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-3.80</t>
+          <t>-7.31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>35.31</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -4994,32 +4994,32 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2348</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5029,47 +5029,47 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>114.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -5079,87 +5079,87 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>17716068.0</t>
+          <t>-5033.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>銘異</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>63.56</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>16.65%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>124.87</t>
+          <t>82.19</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>3934</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>音圈馬達(VCM)43.59%、其他18.34%、硬碟機上蓋(COVER)17.34%、外接式儲存設備10.89%、硬碟機零組件(HDD)5.75%、顯微鏡零組件4.10% (2024年)</t>
+          <t>安全監視產品81.64%、工業應用產品10.77%、其他5.88%、健康醫療產品1.24%、健康及保健產品0.48% (2023年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>銘異-電腦及週邊設備業-上市</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5181,137 +5181,137 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3027</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>-3.11</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30391.0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-8.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>40.54</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>-3.14</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>5027</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
           <t>-0.32</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>330.479</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-3.06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>1074</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-2.20</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -5321,82 +5321,82 @@
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>-12730549.0</t>
+          <t>3339422.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>盛達</t>
+          <t>順達</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>19.31</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>20.70%</t>
+          <t>11.62%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>-1.92%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>128.54</t>
+          <t>37.37</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>3408</t>
+          <t>29139</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>再生能源-系統整合40.39%、再生能源-設備銷售35.86%、通訊電子設備12.27%、電源設備7.20%、再生能源-其他4.28% (2024年)</t>
+          <t>鋰電池組99.83%、其他0.17% (2023年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>盛達-通信網路業-上市</t>
+          <t>順達-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>通信網路業右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>70.29</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5418,17 +5418,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4746.439</t>
+          <t>1177.756</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5438,27 +5438,27 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>-3.80</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>34.39</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5468,112 +5468,112 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>13.64</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>247118671.0</t>
+          <t>17716068.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>聯邦銀</t>
+          <t>銘異</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
@@ -5583,57 +5583,57 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>64.33</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.65%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.46%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>121.73</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>70876</t>
+          <t>3982</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+          <t>音圈馬達(VCM)43.59%、其他18.34%、硬碟機上蓋(COVER)17.34%、外接式儲存設備10.89%、硬碟機零組件(HDD)5.75%、顯微鏡零組件4.10% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>聯邦銀-金融保險-上市</t>
+          <t>銘異-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5655,17 +5655,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>832.267</t>
+          <t>4746.439</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5675,27 +5675,27 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>32.46</t>
+          <t>34.39</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>17.2</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5705,17 +5705,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5725,17 +5725,17 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -5745,32 +5745,32 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5785,27 +5785,27 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>32036904.0</t>
+          <t>247118671.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>台產</t>
+          <t>聯邦銀</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -5820,47 +5820,47 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>34.26%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>12.99%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>12586</t>
+          <t>70066</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>台產-金融保險-上市</t>
+          <t>聯邦銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>18.17</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5892,17 +5892,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6481.673</t>
+          <t>832.267</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5912,137 +5912,137 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>32.46</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>32.3</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>20.4</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>5958</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>31.0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>-234774094.0</t>
+          <t>32036904.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>台中銀</t>
+          <t>台產</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -6057,47 +6057,47 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>14.33</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.26%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.99%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>118653</t>
+          <t>12605</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>台中銀-金融保險-上市</t>
+          <t>台產-金融保險-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6129,17 +6129,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-3.19</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29336.453</t>
+          <t>6481.673</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6149,27 +6149,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.88</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>12.31</t>
+          <t>21.47</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24.3</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6179,72 +6179,72 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>100</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>6831</t>
+          <t>8612</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6254,37 +6254,37 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>-379913866.0</t>
+          <t>-234774094.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>台中銀</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -6294,57 +6294,57 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>5.2</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>17.77%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>9.17%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>146454</t>
+          <t>118929</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>航空客運62.61%、航空貨運30.92%、其他營業收入6.46% (2023年)</t>
+          <t>利息淨收益63.48%、手續費淨收益24.51%、透過損益按公允價值衡量之金18.64%、透過其他綜合損益按公允價值2.85%、其他利息以外淨收益0.26% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>華航-航運業-上市</t>
+          <t>台中銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>14.16</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -6366,17 +6366,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2607</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-1.23</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6920.486</t>
+          <t>29336.453</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6386,27 +6386,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-2.88</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>12.31</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>31.95</t>
+          <t>24.3</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6416,37 +6416,37 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>-1.46</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>13532</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -6456,32 +6456,32 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>106.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -6506,17 +6506,17 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>251786452.0</t>
+          <t>-379913866.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>榮運</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -6531,47 +6531,47 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>12.44</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>20.90%</t>
+          <t>17.77%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>12.07%</t>
+          <t>9.17%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>34522</t>
+          <t>144941</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
+          <t>航空客運62.61%、航空貨運30.92%、其他營業收入6.46% (2023年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>榮運-航運業-上市</t>
+          <t>華航-航運業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>33.32</t>
+          <t>14.16</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -6603,17 +6603,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2607</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>-1.23</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>31078.923</t>
+          <t>6920.486</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6623,27 +6623,27 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>230.5</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -6653,57 +6653,57 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>8084</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -6713,12 +6713,12 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>106.0</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -6733,27 +6733,27 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>19584168054.0</t>
+          <t>251786452.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>榮運</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -6768,47 +6768,47 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>53.49</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>35.32%</t>
+          <t>20.90%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>29.75%</t>
+          <t>12.07%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>18.15</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>497960</t>
+          <t>34522</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
+          <t>貨物承攬服務61.85%、船舶出租等國際海運服務19.66%、內陸運輸服務10.45%、貨櫃集散場服務5.12%、油品供售服務2.63%、其他0.29% (2023年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>長榮-航運業-上市</t>
+          <t>榮運-航運業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>268.04</t>
+          <t>33.32</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6840,17 +6840,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10518.667</t>
+          <t>31078.923</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6860,27 +6860,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-1.25</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>18.62</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>230.5</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6890,72 +6890,72 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>248</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>15874</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-1.42</t>
+          <t>-1.10</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>64.0</t>
+          <t>77.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -6970,7 +6970,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -6980,22 +6980,22 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>-326449986.0</t>
+          <t>19584168054.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>日勝生</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7005,57 +7005,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>14.35</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>53.49</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>49.27%</t>
+          <t>35.32%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>24.39%</t>
+          <t>29.75%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>49.91</t>
+          <t>17.7</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>14388</t>
+          <t>490382</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>日鼎水務-桃園污水下水道BOT24.35%、寶鼎-桃園水資源回收中心再18.59%、日勝生-板橋浮洲合宜住宅案14.40%、百貨13.29%、營業租賃11.02%、其他9.90%、飯店服務4.79%、營建工程2.46%、勞務1.14%、日勝生-新店美河市案0.06% (2023年)</t>
+          <t>船東97.62%、貨櫃場及碼頭1.31%、代理行0.92%、其他0.16% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>日勝生-建材營造-上市</t>
+          <t>長榮-航運業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>11.67</t>
+          <t>268.04</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7077,17 +7077,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2554.711</t>
+          <t>10518.667</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7097,27 +7097,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-1.81</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>99.6</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7127,72 +7127,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>16.14</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>53</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>6434</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>298.0</t>
+          <t>64.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7207,32 +7207,32 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>382533797.0</t>
+          <t>-326449986.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>日勝生</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7242,57 +7242,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>19.15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>24.79%</t>
+          <t>49.27%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>12.81%</t>
+          <t>24.39%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>184.39</t>
+          <t>50.04</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>44275</t>
+          <t>14750</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
+          <t>日鼎水務-桃園污水下水道BOT24.35%、寶鼎-桃園水資源回收中心再18.59%、日勝生-板橋浮洲合宜住宅案14.40%、百貨13.29%、營業租賃11.02%、其他9.90%、飯店服務4.79%、營建工程2.46%、勞務1.14%、日勝生-新店美河市案0.06% (2023年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>創見-半導體業-上市</t>
+          <t>日勝生-建材營造-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>46.12</t>
+          <t>11.67</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7302,7 +7302,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -7314,17 +7314,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-1.13</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11333.519</t>
+          <t>4056.745</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7334,27 +7334,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>-2.56</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>24.93</t>
+          <t>83.99</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>47.95</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7364,72 +7364,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>26.68</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>11659</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>156.0</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7444,32 +7444,32 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>-329429700.0</t>
+          <t>556327180.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>銘旺科</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
@@ -7479,57 +7479,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>4.82%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>-27.51%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>83.07</t>
+          <t>50.04</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>67311</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
+          <t>房屋99.99%、其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>銘旺科-光電業-上市</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7551,17 +7551,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1289.951</t>
+          <t>2554.711</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7571,27 +7571,27 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>23.57</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>99.6</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7601,72 +7601,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>298.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7681,32 +7681,32 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>33878708.0</t>
+          <t>382533797.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>春源</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7716,57 +7716,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>24.79%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>12.81%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>181.53</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>13601</t>
+          <t>45135</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+          <t>FLASH+DRAM產品85.79%、其他14.21% (2023年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>春源-鋼鐵工業-上市</t>
+          <t>創見-半導體業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7788,17 +7788,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-1.78</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8044.988</t>
+          <t>11333.519</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7808,202 +7808,202 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-3.02</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>24.93</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>9552</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>-329429700.0</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>8016</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>-77910287.0</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>億泰</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>電器電纜</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>14.91%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>-27.51%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>21.63</t>
+          <t>82.07</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>4679</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>電力電纜(公噸),電力電纜(米88.77%、通信電纜4.05%、光纖電纜2.56%、其他1.88%、橡膠電纜1.56%、裸銅線1.18% (2023年)</t>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>億泰-電器電纜-上市</t>
+          <t>銘旺科-光電業-上市</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>電器電纜右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>11.66</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8025,17 +8025,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-1.47</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7811.923</t>
+          <t>1289.951</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8045,27 +8045,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-1.35</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>84.33</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -8075,72 +8075,72 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>386.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -8155,32 +8155,32 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>137927227.0</t>
+          <t>33878708.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>聚隆</t>
+          <t>春源</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>鋼鐵工業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -8190,57 +8190,57 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>9.9</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>120.71</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>1.75%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>41.47</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>13666</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>尼龍加工絲43.55%、尼龍原絲23.43%、Lyocell原絲14.41%、其他9.33%、聚酯加工絲6.69%、醫材2.51%、聚酯原絲0.07% (2023年)</t>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>聚隆-紡織纖維-上市</t>
+          <t>春源-鋼鐵工業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -8262,107 +8262,107 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>-1.78</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8044.988</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>125.115</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>21.9</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-0.74</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>20.3</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>12983</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>-2.16</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8392,32 +8392,32 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>2025-02-07</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>3578537.0</t>
+          <t>-77910287.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>年興</t>
+          <t>億泰</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>電器電纜</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
@@ -8427,57 +8427,57 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>18.69</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>11.83%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>3.32%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>21.79</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>4518</t>
+          <t>4766</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>成衣52.43%、紡織品46.20%、其他1.37% (2024年)</t>
+          <t>電力電纜(公噸),電力電纜(米88.77%、通信電纜4.05%、光纖電纜2.56%、其他1.88%、橡膠電纜1.56%、裸銅線1.18% (2023年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>年興-紡織纖維-上市</t>
+          <t>億泰-電器電纜-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
         <is>
-          <t>紡織纖維右上</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>34.75</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
@@ -8499,17 +8499,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>309.0</t>
+          <t>7811.923</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8519,27 +8519,27 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-2.25</t>
+          <t>-1.35</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>84.33</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>16.5</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -8549,72 +8549,72 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-3.63</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>386.0</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -8624,12 +8624,12 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -8639,82 +8639,82 @@
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>-24276.0</t>
+          <t>137927227.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>台翰</t>
+          <t>聚隆</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>117.86</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>16.16%</t>
+          <t>11.78%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>1.75%</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>66.3</t>
+          <t>62.73</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
+          <t>尼龍加工絲43.55%、尼龍原絲23.43%、Lyocell原絲14.41%、其他9.33%、聚酯加工絲6.69%、醫材2.51%、聚酯原絲0.07% (2023年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>台翰-電子零組件業-上櫃</t>
+          <t>聚隆-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>24.9</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -8736,17 +8736,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2239.924</t>
+          <t>125.115</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8756,142 +8756,142 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10.22</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>20.3</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>1083</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>-0.63</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-28</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>-99796356.0</t>
+          <t>3578537.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>聯成</t>
+          <t>年興</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH36" t="inlineStr">
@@ -8901,57 +8901,57 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>13.63</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.56</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>2.61%</t>
+          <t>11.83%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>-0.89%</t>
+          <t>3.32%</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>92.4</t>
+          <t>62.73</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>12898</t>
+          <t>4487</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>商品銷售99.64%、運輸及倉儲物流0.36% (2024年)</t>
+          <t>成衣52.43%、紡織品46.20%、其他1.37% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>聯成-塑膠工業-上市</t>
+          <t>年興-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>塑膠工業右下</t>
+          <t>紡織纖維右上</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>22.17</t>
+          <t>34.75</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -8973,230 +8973,704 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>1336</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-2.21</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-2.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>24.4</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1413</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>-5.23</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>-24276.0</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>台翰</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>16.16%</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>8.80%</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>65.32</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>塑膠製品88.45%、模具11.55% (2023年)</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>台翰-電子零組件業-上櫃</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>24.9</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-0.77</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2239.924</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-1.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>-99796356.0</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>聯成</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>2.61%</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>12857</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>商品銷售99.64%、運輸及倉儲物流0.36% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>聯成-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>1102</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>5017.342</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-0.11</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>9.82</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>44.1</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>13317</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>15327</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
         <is>
           <t>0.86</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>0.22</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>0.82</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr">
+      <c r="Y39" t="inlineStr">
         <is>
           <t>29.0</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
+      <c r="Z39" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA37" t="inlineStr">
+      <c r="AA39" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AB39" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AE39" t="inlineStr">
         <is>
           <t>-81761680.0</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>亞泥</t>
         </is>
       </c>
-      <c r="AG37" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>水泥工業</t>
         </is>
       </c>
-      <c r="AH37" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
         <is>
           <t>17.30%</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AM39" t="inlineStr">
         <is>
           <t>15.00%</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>19.87</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>165270</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>167220</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
         <is>
           <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AR39" t="inlineStr">
         <is>
           <t>水泥工業右上</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>51.13</t>
         </is>
       </c>
-      <c r="AT37" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU37" t="inlineStr">
+      <c r="AU39" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
